--- a/2022_HelloWorld_in_English/1102.xlsx
+++ b/2022_HelloWorld_in_English/1102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_vs\helloworldinenglish\data\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4C7924-402C-4733-8385-42CAB2B75B9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD72F45-6C8E-45E7-84BD-E0BEAA6BE9CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,13 +722,15 @@
     <t>translation</t>
   </si>
   <si>
-    <t>Before the program, how many days do you usually spend at least 5 minutes a day utilizing English videos or articles for entertainment or knowledge?</t>
+    <t>this question is for the use of other research</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>In the future, how many days in a week do you expect yourself to spend at least 5 minutes a day utilizing English videos or articles for entertainment or knowledge?</t>
+    <t>Before the program, how many days in a week do you usually spend at least 5 minutes on utilizing English for entertainment or knowledge?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>this question is for the use of other research</t>
+    <t>In the future, how many days in a week do you wish that you will spend at least 5 minutes on utilizing English for entertainment or knowledge?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DA216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -69111,8 +69113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -69139,7 +69141,7 @@
         <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -69150,7 +69152,7 @@
         <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -69161,7 +69163,7 @@
         <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -69172,7 +69174,7 @@
         <v>146</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -69183,7 +69185,7 @@
         <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -69194,7 +69196,7 @@
         <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -69205,7 +69207,7 @@
         <v>149</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -69216,7 +69218,7 @@
         <v>150</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -69227,7 +69229,7 @@
         <v>151</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -69238,7 +69240,7 @@
         <v>152</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -69249,7 +69251,7 @@
         <v>153</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -69260,7 +69262,7 @@
         <v>154</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -69271,7 +69273,7 @@
         <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -69282,7 +69284,7 @@
         <v>156</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -69293,7 +69295,7 @@
         <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -69304,7 +69306,7 @@
         <v>158</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -69315,7 +69317,7 @@
         <v>159</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -69326,7 +69328,7 @@
         <v>160</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -69337,7 +69339,7 @@
         <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -69348,7 +69350,7 @@
         <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -69359,7 +69361,7 @@
         <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -69370,7 +69372,7 @@
         <v>164</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -69381,7 +69383,7 @@
         <v>165</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -69392,7 +69394,7 @@
         <v>166</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -69403,7 +69405,7 @@
         <v>167</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -69414,7 +69416,7 @@
         <v>168</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -69425,7 +69427,7 @@
         <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -69436,7 +69438,7 @@
         <v>170</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -69447,7 +69449,7 @@
         <v>171</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -69458,7 +69460,7 @@
         <v>172</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -69469,7 +69471,7 @@
         <v>173</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -69480,7 +69482,7 @@
         <v>174</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -69491,7 +69493,7 @@
         <v>175</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -69502,7 +69504,7 @@
         <v>176</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -69513,7 +69515,7 @@
         <v>177</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -69524,7 +69526,7 @@
         <v>178</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -69535,7 +69537,7 @@
         <v>179</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -69546,7 +69548,7 @@
         <v>180</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -69557,7 +69559,7 @@
         <v>181</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -69568,7 +69570,7 @@
         <v>182</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -69579,7 +69581,7 @@
         <v>183</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -69590,7 +69592,7 @@
         <v>184</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -69601,7 +69603,7 @@
         <v>185</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -69612,7 +69614,7 @@
         <v>186</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -69623,7 +69625,7 @@
         <v>187</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -69634,7 +69636,7 @@
         <v>188</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -69645,7 +69647,7 @@
         <v>189</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -69656,7 +69658,7 @@
         <v>190</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -69667,7 +69669,7 @@
         <v>191</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -69678,7 +69680,7 @@
         <v>192</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -69689,7 +69691,7 @@
         <v>193</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -69700,7 +69702,7 @@
         <v>194</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -69711,7 +69713,7 @@
         <v>195</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -69722,7 +69724,7 @@
         <v>196</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -69733,7 +69735,7 @@
         <v>197</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -69744,7 +69746,7 @@
         <v>198</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -69755,7 +69757,7 @@
         <v>199</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -69766,7 +69768,7 @@
         <v>200</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -69777,7 +69779,7 @@
         <v>201</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -69788,7 +69790,7 @@
         <v>202</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -69799,7 +69801,7 @@
         <v>203</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -69810,7 +69812,7 @@
         <v>204</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -69821,7 +69823,7 @@
         <v>205</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -69832,7 +69834,7 @@
         <v>206</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -69843,7 +69845,7 @@
         <v>207</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -69854,7 +69856,7 @@
         <v>208</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -69865,7 +69867,7 @@
         <v>209</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -69876,7 +69878,7 @@
         <v>210</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -69887,7 +69889,7 @@
         <v>211</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -69898,7 +69900,7 @@
         <v>212</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -69909,7 +69911,7 @@
         <v>213</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -69920,7 +69922,7 @@
         <v>214</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -69931,7 +69933,7 @@
         <v>215</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -69942,7 +69944,7 @@
         <v>216</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -69953,7 +69955,7 @@
         <v>217</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -69964,7 +69966,7 @@
         <v>218</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -69975,7 +69977,7 @@
         <v>219</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -69986,7 +69988,7 @@
         <v>220</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -69997,7 +69999,7 @@
         <v>221</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -70008,7 +70010,7 @@
         <v>222</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -70019,7 +70021,7 @@
         <v>223</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -70030,7 +70032,7 @@
         <v>224</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -70041,7 +70043,7 @@
         <v>225</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -70052,7 +70054,7 @@
         <v>226</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -70063,7 +70065,7 @@
         <v>227</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -70074,7 +70076,7 @@
         <v>228</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -70085,7 +70087,7 @@
         <v>229</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -70096,7 +70098,7 @@
         <v>230</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -70107,11 +70109,12 @@
         <v>231</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>